--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:35:02+00:00</t>
+    <t>2022-05-15T20:34:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T20:34:26+00:00</t>
+    <t>2022-05-15T21:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:11:53+00:00</t>
+    <t>2022-05-15T21:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:22:54+00:00</t>
+    <t>2022-05-15T23:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:20:03+00:00</t>
+    <t>2022-05-16T02:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T06:42:02+00:00</t>
+    <t>2022-05-16T08:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T09:08:52+00:00</t>
+    <t>2022-05-16T13:03:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:03:47+00:00</t>
+    <t>2022-05-16T13:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:13:28+00:00</t>
+    <t>2022-05-16T13:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:28:44+00:00</t>
+    <t>2022-05-16T13:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:35:07+00:00</t>
+    <t>2022-05-16T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T20:51:46+00:00</t>
+    <t>2022-05-16T21:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:03:30+00:00</t>
+    <t>2022-05-16T21:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:18:12+00:00</t>
+    <t>2022-05-16T21:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:46:46+00:00</t>
+    <t>2022-05-16T22:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:00:55+00:00</t>
+    <t>2022-05-16T22:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:31:13+00:00</t>
+    <t>2022-05-16T22:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:59:36+00:00</t>
+    <t>2022-05-17T00:01:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:01:29+00:00</t>
+    <t>2022-05-17T00:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:36:56+00:00</t>
+    <t>2022-05-17T01:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T01:32:43+00:00</t>
+    <t>2022-05-17T02:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:11:59+00:00</t>
+    <t>2022-05-17T02:27:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:27:04+00:00</t>
+    <t>2022-05-17T21:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T21:52:12+00:00</t>
+    <t>2022-05-18T09:42:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T09:42:35+00:00</t>
+    <t>2022-05-18T10:11:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T10:11:21+00:00</t>
+    <t>2022-05-18T22:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-v3-ActEncounterCode.xlsx
+++ b/ValueSet-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T22:24:04+00:00</t>
+    <t>2022-05-18T22:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
